--- a/R analysis of proteome data/Results/proteome_limma_analysis (with column of new identifiers and removed old) 3.xlsx
+++ b/R analysis of proteome data/Results/proteome_limma_analysis (with column of new identifiers and removed old) 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabde\OneDrive\Documents\UM documents\BMS Year 3\Internship + Thesis\Sabrina_BMS_Bachelor-Internship\R analysis of proteome data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8E0515-3BFB-4A03-836A-6CB4A3182519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A30350-C29D-4DC5-9578-DD1EC5550D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1753,7 +1753,7 @@
   <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
